--- a/User Stories/User Stories.xlsx
+++ b/User Stories/User Stories.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocky\Desktop\DEV PYTHON\Livrables\P3_dia_mouhamed\User Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F065E7B-81C3-4F91-B5B1-396035B4E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1327A585-91E8-43FA-B696-5EBB73D15787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{E1990C13-DB24-433D-B432-AA9CEB5CFB21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" firstSheet="1" activeTab="5" xr2:uid="{E1990C13-DB24-433D-B432-AA9CEB5CFB21}"/>
   </bookViews>
   <sheets>
     <sheet name="USER STORIES" sheetId="8" r:id="rId1"/>
-    <sheet name="A000 - Connexion" sheetId="1" r:id="rId2"/>
-    <sheet name="B000 - Tableau de bord" sheetId="3" r:id="rId3"/>
-    <sheet name="C000 - Interface de chat" sheetId="4" r:id="rId4"/>
-    <sheet name="D000 - Calendrier" sheetId="5" r:id="rId5"/>
-    <sheet name="E000 - Tâches" sheetId="6" r:id="rId6"/>
+    <sheet name="Connexion" sheetId="1" r:id="rId2"/>
+    <sheet name="Tableau de bord" sheetId="3" r:id="rId3"/>
+    <sheet name="Interface de chat" sheetId="4" r:id="rId4"/>
+    <sheet name="Calendrier" sheetId="5" r:id="rId5"/>
+    <sheet name="Tâches" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'E000 - Tâches'!$1:$5</definedName>
-    <definedName name="Print_Area" localSheetId="1">'A000 - Connexion'!$B$1:$F$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'A000 - Connexion'!$A$1:$F$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'B000 - Tableau de bord'!$A$1:$F$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'C000 - Interface de chat'!$A$1:$F$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'D000 - Calendrier'!$A$1:$F$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'E000 - Tâches'!$A$1:$F$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">Tâches!$1:$5</definedName>
+    <definedName name="Print_Area" localSheetId="1">Connexion!$B$1:$F$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Calendrier!$A$1:$F$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Connexion!$A$1:$F$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Interface de chat'!$A$1:$F$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Tableau de bord'!$A$1:$F$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Tâches!$A$1:$F$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
   <si>
     <t>En tant que</t>
   </si>
@@ -342,216 +342,6 @@
       </rPr>
       <t>: le système affiche un message "Identifiants invalides"</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Scénario 1:  Se connecter avec des identifiant valides </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Étant donné que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur est sur le formulaire de création de compte et qu'il a entré ses identifiants
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Valider"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système le connecte et le ridiger vers la page "Tableau de bord"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système redirige l'utilisateur vers la page "Tableau de bord"  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Scénario 2: Se connecter avec un Email déja utilisé 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Étant donné que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur est sur le formulaire de création de compte et qu'il a entré ses identifiants
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Valider"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alors : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">le système ne le connecte pas 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système lui affiche que l'Email saisie est déja utilisé</t>
-    </r>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>A003</t>
   </si>
   <si>
     <t>Réinitialiser le mot de passe</t>
@@ -564,9 +354,6 @@
     <t>Je souhaite visualiser les tâches</t>
   </si>
   <si>
-    <t>Afin d'avoir une vue global des tâches et rendez-vous à venir des informations; également d’être au courant des évènements à venir</t>
-  </si>
-  <si>
     <t>Visualiser les tâches</t>
   </si>
   <si>
@@ -578,9 +365,6 @@
 le nombre de messages non-lus</t>
   </si>
   <si>
-    <t>Visualiser les messages non-lus</t>
-  </si>
-  <si>
     <t>Visualiser les prochains évènements</t>
   </si>
   <si>
@@ -699,6 +483,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Étant donné que : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur accède au tableau de bord
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur un onglet du menu (Calendrier, Chat, Tâches) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alors : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">le système ridiger vers une des pages (Calendrier, Chat, Tâches) </t>
+    </r>
+  </si>
+  <si>
+    <t>Répondre à un message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Étant donné que :</t>
     </r>
     <r>
@@ -709,7 +563,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> l'utilisateur accède au tableau de bord
+      <t xml:space="preserve"> l'utilisateur a accédé à l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur "Nouveau Message"
 </t>
     </r>
     <r>
@@ -731,30 +607,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> le système affiche une liste des tâches avec un % de progression</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Étant donné que : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur accède au tableau de bord
+      <t xml:space="preserve"> le système affiche la liste de contacts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur sélectionne un ou plusieurs contacts dans sa liste
 </t>
     </r>
     <r>
@@ -776,45 +651,74 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur un onglet du menu (Calendrier, Chat, Tâches) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alors : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">le système ridiger vers une des pages (Calendrier, Chat, Tâches) </t>
-    </r>
-  </si>
-  <si>
-    <t>B001</t>
-  </si>
-  <si>
-    <t>B002</t>
-  </si>
-  <si>
-    <t>B003</t>
-  </si>
-  <si>
-    <t>Créer un message</t>
-  </si>
-  <si>
-    <t>Répondre à un message</t>
+      <t xml:space="preserve"> entre un message
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clique le bouton "Envoyer"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système envoie le message
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> affiche le dernier message envoyé dans le fil de conversation</t>
+    </r>
   </si>
   <si>
     <r>
@@ -848,6 +752,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur a accédé à une conversation existante
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Lorsque :</t>
     </r>
     <r>
@@ -858,7 +784,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur "Nouveau Message"
+      <t xml:space="preserve"> l'utilisateur clique sur le champ de réponse
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur entre un message
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Et que : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">l'utilisateur clique sur le bouton "Envoyer"
 </t>
     </r>
     <r>
@@ -880,7 +850,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> le système affiche la liste de contacts
+      <t xml:space="preserve"> le système envoie le message au destinataire
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche le message dans l'historique des messages</t>
+    </r>
+  </si>
+  <si>
+    <t>Afin de pouvoir communiquer avec mes contacts</t>
+  </si>
+  <si>
+    <t>Visualiser un message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Étant donné que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur a accédé à l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur a reçu un message d'un autre utilisateur
 </t>
     </r>
     <r>
@@ -902,51 +945,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> l'utilisateur sélectionne un ou plusieurs contacts dans sa liste
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> entre un message
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clique le bouton "Envoyer"
+      <t xml:space="preserve"> l'utilisateur accède à la conversation correspondante
 </t>
     </r>
     <r>
@@ -968,278 +967,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> le système envoie le message
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> affiche le dernier message envoyé dans le fil de conversation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Étant donné que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur a accédé à l'interface de chat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur a accédé à une conversation existante
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le champ de réponse
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur entre un message
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Et que : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">l'utilisateur clique sur le bouton "Envoyer"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système envoie le message au destinataire
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche le message dans l'historique des messages</t>
-    </r>
-  </si>
-  <si>
-    <t>Afin de pouvoir communiquer avec mes contacts</t>
-  </si>
-  <si>
-    <t>Visualiser un message</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Étant donné que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur a accédé à l'interface de chat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur a reçu un message d'un autre utilisateur
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur accède à la conversation correspondante
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> le système affiche le message reçu dans le fil de conversation</t>
     </r>
   </si>
@@ -1256,88 +983,9 @@
     <t>Afin de ne plus l'avoir dans ma liste de contact</t>
   </si>
   <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t>Je souhaite visualiser 
-du mois en cours</t>
-  </si>
-  <si>
-    <t>Afin de pouvoir organiser mon agenda</t>
-  </si>
-  <si>
     <t>Ajouter un nouvel événement</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Étant donné que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur a accédé à la page de calendrier
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche les événements du mois en cours</t>
-    </r>
-  </si>
-  <si>
-    <t>D001</t>
-  </si>
-  <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>D003</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
     <t>Valider une tâche</t>
   </si>
   <si>
@@ -1345,18 +993,6 @@
   </si>
   <si>
     <t xml:space="preserve">Voir tâches en cours </t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>E002</t>
-  </si>
-  <si>
-    <t>E003</t>
-  </si>
-  <si>
-    <t>E004</t>
   </si>
   <si>
     <t>Je souhaite créer une tâche</t>
@@ -1767,12 +1403,6 @@
     </r>
   </si>
   <si>
-    <t>E005</t>
-  </si>
-  <si>
-    <t>B004</t>
-  </si>
-  <si>
     <t>Je souhaite consultez 
 les tâches en cours</t>
   </si>
@@ -2053,13 +1683,6 @@
     </r>
   </si>
   <si>
-    <t>Modifier/Supprimer les tâches</t>
-  </si>
-  <si>
-    <t>Je souhaite modifier/
-Supprimer les tâches</t>
-  </si>
-  <si>
     <t>Afin d'organiser mes tâches</t>
   </si>
   <si>
@@ -2379,14 +2002,7 @@
     <t>Bénévole</t>
   </si>
   <si>
-    <t>Événements du mois</t>
-  </si>
-  <si>
-    <t>Afin de savoir la date et 
-l'heure de mes événements</t>
-  </si>
-  <si>
-    <t>Je souhaite visualiser mes événements marqués sur le calendrier</t>
+    <t>Je souhaite ajouter un nouvel événement</t>
   </si>
   <si>
     <r>
@@ -2430,6 +2046,969 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Ajouter un événement"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche un formulaire de création d'événement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur entre le "titre"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur entre le "lieu ou appel vidéo"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur "@Invités"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche la liste des contacts de l'utilisateur
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur sélectionne un ou plusieurs contacts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Ajouter"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alors : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">le système ajoute les participants à l'évènement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: le système renvoie l'utilisateur à la page de création d'événement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Enregistrer"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système enregistre l'événement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système notifie par mail les participants sélectionnés
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche l'évènement sur le calendrier de l'utilisateur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Étant donné que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur a accédé à la page de calendrier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Événements  archivés"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche la liste des événements passés</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Afin de pouvoir consultés les événements passés </t>
+  </si>
+  <si>
+    <t>Je souhaite accéder aux événements archivés</t>
+  </si>
+  <si>
+    <t>Accéder aux événements archivés</t>
+  </si>
+  <si>
+    <t>Je souhaite créé une nouvelle conversation</t>
+  </si>
+  <si>
+    <t>Je souhaite répondre à un message</t>
+  </si>
+  <si>
+    <t>Je souhaite visualiser un message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Étant donné que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur a accédé à l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Contacts"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche la liste des contacts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lorsque </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: l'utilisateur clique sur le bouton "Ajouter un contact"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche une barre de recherche "Rechercher par mail"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur entre le nom d'un autre utilisateur
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système recherche ce nom dans la base de données des utilisateurs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche les résultats correspondants
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur sélectionne un contact
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Ajouter"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alors : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>le système ajoute ce contact à la liste des contacts de l'utilisateur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Étant donné que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur a accédé à l'interface de chat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Contacts"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche la liste des contacts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur sélectionne un contact
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Supprimer"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche le message "Êtes-vous sûr de vouloir supprimer &lt;contact&gt; ?"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Oui"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alors : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>le système supprime le contact de la liste de contacts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Étant donné que : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">l'utilisateur a accédé à la page de connexion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le lien "Mot de passe oublié" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur entre un email valide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Récupérer mot de passe"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système envoie un email pour réinitialiser le mot de passe</t>
+    </r>
+  </si>
+  <si>
+    <t>Afin de surveiller la 
+progression de mon travail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+USER STORIES
+</t>
+  </si>
+  <si>
+    <t>Visualiser les messages 
+non-lus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualiser les événements à venir </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Étant donné que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur a accédé à la page de calendrier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> l'utilisateur clique sur une date du calendrier 
 </t>
     </r>
@@ -2452,11 +3031,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> le système affiche les événements de la date choisie</t>
-    </r>
-  </si>
-  <si>
-    <t>Je souhaite ajouter un nouvel événement</t>
+      <t xml:space="preserve"> le système affiche les événements à venir</t>
+    </r>
+  </si>
+  <si>
+    <t>Modifier un événement</t>
+  </si>
+  <si>
+    <t>Supprimer un événement</t>
+  </si>
+  <si>
+    <t>Je souhaite supprimer 
+un événement</t>
+  </si>
+  <si>
+    <t>Je souhaite modifier 
+un événement</t>
+  </si>
+  <si>
+    <t>Étant donné que : l'utilisateur a accédé à la page calendrier
+Lorsque : l'utilisateur clique sur le bouton "pinceau"
+Alors : le système affiche un formulaire de modification de tâche
+Alors : l'utilisateur poura modifier la tâche concernée</t>
+  </si>
+  <si>
+    <t>Afin d'organiser mes événements</t>
+  </si>
+  <si>
+    <t>Afin de pouvoir organiser 
+mon agenda</t>
+  </si>
+  <si>
+    <t>Afin de pouvoir organiser
+ mon agenda</t>
   </si>
   <si>
     <r>
@@ -2478,29 +3085,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> l'utilisateur a accédé à la page de calendrier
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Ajouter un événement"
+      <t xml:space="preserve"> l'utilisateur accède au tableau de bord
 </t>
     </r>
     <r>
@@ -2522,1027 +3107,405 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> le système affiche un formulaire de création d'événement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur entre le "titre"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur entre le "lieu ou appel vidéo"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur "@Invités"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche la liste des contacts de l'utilisateur
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur sélectionne un ou plusieurs contacts
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Ajouter"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alors : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">le système ajoute les participants à l'évènement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Et </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: le système renvoie l'utilisateur à la page de création d'événement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Enregistrer"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système enregistre l'événement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système notifie par mail les participants sélectionnés
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche l'évènement sur le calendrier de l'utilisateur</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Étant donné que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur a accédé à la page de calendrier
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Événements  archivés"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche la liste des événements passés</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Afin de pouvoir consultés les événements passés </t>
-  </si>
-  <si>
-    <t>Je souhaite accéder aux événements archivés</t>
-  </si>
-  <si>
-    <t>Accéder aux événements archivés</t>
-  </si>
-  <si>
-    <t>Aperçu des événements à venir sur le calendrier</t>
-  </si>
-  <si>
-    <t>Je souhaite créé une nouvelle conversation</t>
-  </si>
-  <si>
-    <t>Je souhaite répondre à un message</t>
-  </si>
-  <si>
-    <t>Je souhaite visualiser un message</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Étant donné que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur a accédé à l'interface de chat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Contacts"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche la liste des contacts
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Lorsque </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: l'utilisateur clique sur le bouton "Ajouter un contact"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche une barre de recherche "Rechercher par mail"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur entre le nom d'un autre utilisateur
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système recherche ce nom dans la base de données des utilisateurs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche les résultats correspondants
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur sélectionne un contact
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Ajouter"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alors : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>le système ajoute ce contact à la liste des contacts de l'utilisateur</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Étant donné que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur a accédé à l'interface de chat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Contacts"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche la liste des contacts
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur sélectionne un contact
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Supprimer"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche le message "Êtes-vous sûr de vouloir supprimer &lt;contact&gt; ?"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Oui"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alors : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>le système supprime le contact de la liste de contacts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Étant donné que : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">l'utilisateur a accédé à la page de connexion
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le lien "Mot de passe oublié" 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur entre un email valide
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Et que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Récupérer mot de passe"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système envoie un email pour réinitialiser le mot de passe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Scénario 1 : Modifier une tâche
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Étant donné que :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur a accédé à la page de gestionnaire des tâches
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorsque :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur clique sur le bouton "pinceau"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le système affiche un formulaire de modification de tâche
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alors :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l'utilisateur poura modifier la tâche concernée
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scénario 2 : Supprimer une tâche</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Étant donné que : l'utilisateur a accédé à la page de gestionnaire des tâches
-Lorsque : l'utilisateur clique sur le bouton "pinceau"
+      <t xml:space="preserve"> le système affiche une liste des tâches non terminées avec un % de progression</t>
+    </r>
+  </si>
+  <si>
+    <t>Créer un nouveau message</t>
+  </si>
+  <si>
+    <t>Étant donné que : l'utilisateur a accédé à la page calendrier
+Lorsque : l'utilisateur clique sur le bouton "croix rouge"
+Alors : le système affiche message "voulez-vous vraiment supprimer cette tâches"
+Alors : l'utilisateur pourra alors supprimer la tâche ou non</t>
+  </si>
+  <si>
+    <t>Je souhaite visualiser mes événements à venir</t>
+  </si>
+  <si>
+    <t>Je souhaite modifier
+ les tâches</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modifier les tâches</t>
+  </si>
+  <si>
+    <t>Supprimer  les tâches</t>
+  </si>
+  <si>
+    <t>Je souhaite supprimer
+ les tâches</t>
+  </si>
+  <si>
+    <t>Étant donné que : l'utilisateur a accédé à la page de gestionnaire des tâches
+Lorsque : l'utilisateur clique sur le bouton "croix rouge"
 Alors : le système affiche message "voulez-vous vraiment supprimer cette tâches"
 Alors : l'utilisateur poura alors supprimer la tâche ou non</t>
-    </r>
-  </si>
-  <si>
-    <t>Afin de surveiller la 
-progression de mon travail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-USER STORIES
-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Étant donné que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur a accédé à la page de gestionnaire des tâches
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorsque :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "pinceau"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système affiche un formulaire de modification de tâche
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur poura modifier la tâche concernée</t>
+    </r>
+  </si>
+  <si>
+    <t>Gérer une tâche pour utilisateur (CRUD)</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>U23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Scénario 1:  Créer un compte avec des identifiant valides </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Étant donné que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur est sur le formulaire de création de compte et qu'il a entré ses identifiants
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Valider"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alors :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système le connecte et le ridiger vers la page "Tableau de bord"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système redirige l'utilisateur vers la page "Tableau de bord"  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Scénario 2: Créer un compte avec un Email déjà  utilisé 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Étant donné que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur est sur le formulaire de création de compte et qu'il a entré ses identifiants
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et que :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l'utilisateur clique sur le bouton "Valider"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alors : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">le système ne le connecte pas 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Et :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le système lui affiche que l'Email saisie est déja utilisé</t>
+    </r>
+  </si>
+  <si>
+    <t>Afin d'avoir une vue global des tâches à venir</t>
   </si>
 </sst>
 </file>
@@ -3724,7 +3687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3805,12 +3768,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3822,6 +3779,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4200,442 +4160,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC775C45-A198-4F74-B7C4-BE2804A337F6}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4654,8 +4614,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4669,17 +4629,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="33"/>
       <c r="F1" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="33"/>
       <c r="F3" s="1"/>
     </row>
     <row r="5" spans="1:7" s="26" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4703,8 +4663,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="219" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>22</v>
+      <c r="A6" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>13</v>
@@ -4723,28 +4683,28 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>23</v>
+      <c r="A7" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="261.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>24</v>
+      <c r="A8" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -4759,7 +4719,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -4831,6 +4791,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B5:F5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -4881,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9F17AC-E9EB-452D-966F-13E865D1F5E4}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4897,17 +4858,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="33"/>
       <c r="F1" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="33"/>
       <c r="F3" s="1"/>
     </row>
     <row r="5" spans="1:6" s="26" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4932,82 +4893,82 @@
     </row>
     <row r="6" spans="1:6" ht="114" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>44</v>
+      <c r="A7" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>45</v>
+      <c r="A8" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>82</v>
+      <c r="A9" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5049,6 +5010,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B5:F5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5101,8 +5063,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5117,17 +5079,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="33"/>
       <c r="F1" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="33"/>
       <c r="F3" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5152,70 +5114,70 @@
     </row>
     <row r="6" spans="1:6" ht="178.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>58</v>
+      <c r="A7" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>59</v>
+      <c r="A8" s="28" t="s">
+        <v>109</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="255.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>60</v>
+      <c r="A9" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
@@ -5227,27 +5189,27 @@
         <v>10</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="195.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
+      <c r="D10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5255,6 +5217,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B5:F5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5302,10 +5265,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDB79C8-241E-4F06-9A4F-1F3111D112CA}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5320,16 +5283,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="33"/>
       <c r="F3" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -5352,92 +5315,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="84" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="305.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="305.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
@@ -5572,11 +5548,19 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B5:F5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -5624,10 +5608,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0692D820-B0F3-4EC9-9072-3B2A26EC593D}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5642,16 +5626,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -5673,112 +5657,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="392.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="367.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="264" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="292.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="276" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
@@ -5814,6 +5811,13 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
